--- a/perhitungan spk asisten.xlsx
+++ b/perhitungan spk asisten.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Semster TERAKHIR TA !\TA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\simkrut\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -948,6 +948,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -961,27 +985,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1018,9 +1021,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1306,43 +1306,43 @@
   <dimension ref="A1:V45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.625" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.75" customWidth="1"/>
+    <col min="4" max="4" width="18.75" customWidth="1"/>
+    <col min="5" max="5" width="24.375" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" customWidth="1"/>
-    <col min="11" max="11" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.85546875" customWidth="1"/>
+    <col min="7" max="7" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.375" customWidth="1"/>
+    <col min="11" max="11" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.875" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
@@ -1359,26 +1359,26 @@
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
       <c r="M3" s="72"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="82"/>
+      <c r="A4" s="90"/>
       <c r="B4" s="73" t="s">
         <v>113</v>
       </c>
@@ -1421,19 +1421,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="74">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C5" s="74">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" s="74">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" s="74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" s="74">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5" s="74">
         <v>3</v>
@@ -1442,13 +1442,13 @@
         <v>3</v>
       </c>
       <c r="I5" s="74">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J5" s="74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K5" s="74">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L5" s="75">
         <v>3</v>
@@ -1468,7 +1468,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="74">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" s="74">
         <v>4</v>
@@ -1477,7 +1477,7 @@
         <v>4</v>
       </c>
       <c r="G6" s="74">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H6" s="74">
         <v>4</v>
@@ -1506,37 +1506,37 @@
         <v>75</v>
       </c>
       <c r="C7" s="74">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" s="74">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E7" s="74">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7" s="74">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G7" s="74">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H7" s="74">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I7" s="74">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J7" s="74">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K7" s="74">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L7" s="75">
         <v>5</v>
       </c>
       <c r="M7" s="75">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -1599,7 +1599,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="6"/>
-      <c r="F11" s="91" t="s">
+      <c r="F11" s="84" t="s">
         <v>1</v>
       </c>
       <c r="G11" s="86" t="s">
@@ -1632,11 +1632,11 @@
       <c r="C12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="105">
+      <c r="D12" s="81">
         <v>5</v>
       </c>
       <c r="E12" s="6"/>
-      <c r="F12" s="92"/>
+      <c r="F12" s="85"/>
       <c r="G12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1672,7 +1672,7 @@
       <c r="C13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="105">
+      <c r="D13" s="81">
         <v>4</v>
       </c>
       <c r="E13" s="6"/>
@@ -1681,19 +1681,19 @@
       </c>
       <c r="G13" s="2">
         <f>B5</f>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H13" s="2">
         <f>'Level 2 Nilai'!K11</f>
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="I13" s="2">
         <f>'Level 2 Microteaching'!O11</f>
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="J13" s="2">
         <f>'Level 2 Wawancara'!Q11</f>
-        <v>0.66</v>
+        <v>0.88</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
@@ -1718,7 +1718,7 @@
       <c r="C14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="105">
+      <c r="D14" s="81">
         <v>5</v>
       </c>
       <c r="E14" s="6"/>
@@ -1731,15 +1731,15 @@
       </c>
       <c r="H14" s="2">
         <f>'Level 2 Nilai'!K12</f>
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="I14" s="2">
         <f>'Level 2 Microteaching'!O12</f>
-        <v>0.80000000000000016</v>
+        <v>1</v>
       </c>
       <c r="J14" s="2">
         <f>'Level 2 Wawancara'!Q12</f>
-        <v>0.7925000000000002</v>
+        <v>0.9524999999999999</v>
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
@@ -1764,7 +1764,7 @@
       <c r="C15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="105">
+      <c r="D15" s="81">
         <v>4</v>
       </c>
       <c r="E15" s="6"/>
@@ -1777,15 +1777,15 @@
       </c>
       <c r="H15" s="2">
         <f>'Level 2 Nilai'!K13</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="I15" s="2">
         <f>'Level 2 Microteaching'!O13</f>
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="J15" s="2">
         <f>'Level 2 Wawancara'!Q13</f>
-        <v>0.94</v>
+        <v>0.91250000000000009</v>
       </c>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
@@ -1908,40 +1908,40 @@
       </c>
       <c r="B19" s="2">
         <f>G13</f>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C19" s="2">
         <f>B19^2</f>
-        <v>10000</v>
+        <v>8100</v>
       </c>
       <c r="D19" s="2">
         <f>SUM(C19:C21)</f>
-        <v>23725</v>
+        <v>21825</v>
       </c>
       <c r="E19" s="2">
         <f>D19^0.5</f>
-        <v>154.02921800749363</v>
+        <v>147.73286702694156</v>
       </c>
       <c r="F19" s="2">
         <f>B19/E19</f>
-        <v>0.64922747316119556</v>
+        <v>0.60920769908017147</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="2">
         <f>F19</f>
-        <v>0.64922747316119556</v>
+        <v>0.60920769908017147</v>
       </c>
       <c r="I19" s="2">
         <f>F25</f>
-        <v>0.42426406871192845</v>
+        <v>0.65538553641523245</v>
       </c>
       <c r="J19" s="2">
         <f>F31</f>
-        <v>0.42426406871192845</v>
+        <v>0.56554580124602538</v>
       </c>
       <c r="K19" s="2">
         <f>F37</f>
-        <v>0.47296867958946581</v>
+        <v>0.55497452084303489</v>
       </c>
       <c r="L19" s="2">
         <f>D12</f>
@@ -1981,32 +1981,32 @@
       </c>
       <c r="D20" s="2">
         <f>SUM(C19:C21)</f>
-        <v>23725</v>
+        <v>21825</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" ref="E20:E21" si="2">D20^0.5</f>
-        <v>154.02921800749363</v>
+        <v>147.73286702694156</v>
       </c>
       <c r="F20" s="2">
         <f>B20/E20</f>
-        <v>0.58430472584507598</v>
+        <v>0.60920769908017147</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="2">
         <f>F20</f>
-        <v>0.58430472584507598</v>
+        <v>0.60920769908017147</v>
       </c>
       <c r="I20" s="2">
         <f>F26</f>
-        <v>0.56568542494923801</v>
+        <v>0.57346234436332832</v>
       </c>
       <c r="J20" s="2">
         <f>F32</f>
-        <v>0.56568542494923812</v>
+        <v>0.62838422360669488</v>
       </c>
       <c r="K20" s="2">
         <f>F38</f>
-        <v>0.56792072511310865</v>
+        <v>0.60069685352612578</v>
       </c>
       <c r="L20" s="2">
         <f>D12</f>
@@ -2046,32 +2046,32 @@
       </c>
       <c r="D21" s="2">
         <f>SUM(C19:C21)</f>
-        <v>23725</v>
+        <v>21825</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="2"/>
-        <v>154.02921800749363</v>
+        <v>147.73286702694156</v>
       </c>
       <c r="F21" s="2">
         <f>B21/E21</f>
-        <v>0.48692060487089661</v>
+        <v>0.50767308256680954</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="2">
         <f>F21</f>
-        <v>0.48692060487089661</v>
+        <v>0.50767308256680954</v>
       </c>
       <c r="I21" s="2">
         <f>F27</f>
-        <v>0.70710678118654746</v>
+        <v>0.49153915231142431</v>
       </c>
       <c r="J21" s="2">
         <f>F33</f>
-        <v>0.70710678118654746</v>
+        <v>0.53412659006569063</v>
       </c>
       <c r="K21" s="2">
         <f>F39</f>
-        <v>0.67362205880923909</v>
+        <v>0.57547073894235157</v>
       </c>
       <c r="L21" s="2">
         <f>D12</f>
@@ -2197,40 +2197,40 @@
       </c>
       <c r="B25" s="2">
         <f>H13</f>
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C25" s="2">
         <f>B25^2</f>
-        <v>0.36</v>
+        <v>1</v>
       </c>
       <c r="D25" s="2">
         <f>SUM(C25:C27)</f>
-        <v>2</v>
+        <v>2.328125</v>
       </c>
       <c r="E25" s="2">
         <f>D25^0.5</f>
-        <v>1.4142135623730951</v>
+        <v>1.5258194519667128</v>
       </c>
       <c r="F25" s="2">
         <f>B25/E25</f>
-        <v>0.42426406871192845</v>
+        <v>0.65538553641523245</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="2">
         <f>H19*L19</f>
-        <v>3.2461373658059776</v>
+        <v>3.0460384954008575</v>
       </c>
       <c r="I25" s="2">
         <f>I19*M19</f>
-        <v>1.6970562748477138</v>
+        <v>2.6215421456609298</v>
       </c>
       <c r="J25" s="2">
         <f>J19*N19</f>
-        <v>2.1213203435596424</v>
+        <v>2.8277290062301268</v>
       </c>
       <c r="K25" s="2">
         <f>K19*O19</f>
-        <v>1.8918747183578632</v>
+        <v>2.2198980833721396</v>
       </c>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
@@ -2250,40 +2250,40 @@
       </c>
       <c r="B26" s="2">
         <f>H14</f>
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" ref="C26:C27" si="3">B26^2</f>
-        <v>0.64000000000000012</v>
+        <v>0.765625</v>
       </c>
       <c r="D26" s="2">
         <f>SUM(C25:C27)</f>
-        <v>2</v>
+        <v>2.328125</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" ref="E26:E27" si="4">D26^0.5</f>
-        <v>1.4142135623730951</v>
+        <v>1.5258194519667128</v>
       </c>
       <c r="F26" s="2">
         <f>B26/E26</f>
-        <v>0.56568542494923801</v>
+        <v>0.57346234436332832</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="2">
         <f t="shared" ref="H26:K27" si="5">H20*L20</f>
-        <v>2.9215236292253799</v>
+        <v>3.0460384954008575</v>
       </c>
       <c r="I26" s="2">
         <f t="shared" si="5"/>
-        <v>2.2627416997969521</v>
+        <v>2.2938493774533133</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" si="5"/>
-        <v>2.8284271247461907</v>
+        <v>3.1419211180334745</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" si="5"/>
-        <v>2.2716829004524346</v>
+        <v>2.4027874141045031</v>
       </c>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
@@ -2303,40 +2303,40 @@
       </c>
       <c r="B27" s="2">
         <f>H15</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.5625</v>
       </c>
       <c r="D27" s="2">
         <f>SUM(C25:C27)</f>
-        <v>2</v>
+        <v>2.328125</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="4"/>
-        <v>1.4142135623730951</v>
+        <v>1.5258194519667128</v>
       </c>
       <c r="F27" s="2">
         <f>B27/E27</f>
-        <v>0.70710678118654746</v>
+        <v>0.49153915231142431</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="2">
         <f t="shared" si="5"/>
-        <v>2.4346030243544829</v>
+        <v>2.5383654128340476</v>
       </c>
       <c r="I27" s="2">
         <f t="shared" si="5"/>
-        <v>2.8284271247461898</v>
+        <v>1.9661566092456972</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="5"/>
-        <v>3.5355339059327373</v>
+        <v>2.6706329503284532</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="5"/>
-        <v>2.6944882352369564</v>
+        <v>2.3018829557694063</v>
       </c>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
@@ -2446,23 +2446,23 @@
       </c>
       <c r="B31" s="2">
         <f>I13</f>
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="C31" s="2">
         <f>B31^2</f>
-        <v>0.36</v>
+        <v>0.81</v>
       </c>
       <c r="D31" s="2">
         <f>SUM(C31:C33)</f>
-        <v>2</v>
+        <v>2.5324999999999998</v>
       </c>
       <c r="E31" s="2">
         <f>D31^0.5</f>
-        <v>1.4142135623730951</v>
+        <v>1.5913830462839549</v>
       </c>
       <c r="F31" s="2">
         <f>B31/E31</f>
-        <v>0.42426406871192845</v>
+        <v>0.56554580124602538</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="7" t="s">
@@ -2470,7 +2470,7 @@
       </c>
       <c r="I31" s="2">
         <f>MAX(H25:H27)</f>
-        <v>3.2461373658059776</v>
+        <v>3.0460384954008575</v>
       </c>
       <c r="J31" s="6"/>
       <c r="K31" s="2" t="s">
@@ -2478,7 +2478,7 @@
       </c>
       <c r="L31" s="2">
         <f>MIN(H25:H27)</f>
-        <v>2.4346030243544829</v>
+        <v>2.5383654128340476</v>
       </c>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
@@ -2497,23 +2497,23 @@
       </c>
       <c r="B32" s="2">
         <f>I14</f>
-        <v>0.80000000000000016</v>
+        <v>1</v>
       </c>
       <c r="C32" s="2">
         <f t="shared" ref="C32:C33" si="6">B32^2</f>
-        <v>0.64000000000000024</v>
+        <v>1</v>
       </c>
       <c r="D32" s="2">
         <f>SUM(C31:C33)</f>
-        <v>2</v>
+        <v>2.5324999999999998</v>
       </c>
       <c r="E32" s="2">
         <f t="shared" ref="E32:E33" si="7">D32^0.5</f>
-        <v>1.4142135623730951</v>
+        <v>1.5913830462839549</v>
       </c>
       <c r="F32" s="2">
         <f>B32/E32</f>
-        <v>0.56568542494923812</v>
+        <v>0.62838422360669488</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="2" t="s">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I32" s="2">
         <f>MAX(I25:I27)</f>
-        <v>2.8284271247461898</v>
+        <v>2.6215421456609298</v>
       </c>
       <c r="J32" s="6"/>
       <c r="K32" s="2" t="s">
@@ -2529,7 +2529,7 @@
       </c>
       <c r="L32" s="2">
         <f>MIN(I25:I27)</f>
-        <v>1.6970562748477138</v>
+        <v>1.9661566092456972</v>
       </c>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
@@ -2548,23 +2548,23 @@
       </c>
       <c r="B33" s="2">
         <f>I15</f>
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.72249999999999992</v>
       </c>
       <c r="D33" s="2">
         <f>SUM(C31:C33)</f>
-        <v>2</v>
+        <v>2.5324999999999998</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" si="7"/>
-        <v>1.4142135623730951</v>
+        <v>1.5913830462839549</v>
       </c>
       <c r="F33" s="2">
         <f>B33/E33</f>
-        <v>0.70710678118654746</v>
+        <v>0.53412659006569063</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="2" t="s">
@@ -2572,7 +2572,7 @@
       </c>
       <c r="I33" s="2">
         <f>MAX(J25:J27)</f>
-        <v>3.5355339059327373</v>
+        <v>3.1419211180334745</v>
       </c>
       <c r="J33" s="6"/>
       <c r="K33" s="2" t="s">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="L33" s="2">
         <f>MIN(J25:J27)</f>
-        <v>2.1213203435596424</v>
+        <v>2.6706329503284532</v>
       </c>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
@@ -2606,7 +2606,7 @@
       </c>
       <c r="I34" s="2">
         <f>MAX(K25:K27)</f>
-        <v>2.6944882352369564</v>
+        <v>2.4027874141045031</v>
       </c>
       <c r="J34" s="6"/>
       <c r="K34" s="2" t="s">
@@ -2614,7 +2614,7 @@
       </c>
       <c r="L34" s="2">
         <f>MIN(K25:K27)</f>
-        <v>1.8918747183578632</v>
+        <v>2.2198980833721396</v>
       </c>
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
@@ -2699,23 +2699,23 @@
       </c>
       <c r="B37" s="2">
         <f>J13</f>
-        <v>0.66</v>
+        <v>0.88</v>
       </c>
       <c r="C37" s="2">
         <f>B37^2</f>
-        <v>0.43560000000000004</v>
+        <v>0.77439999999999998</v>
       </c>
       <c r="D37" s="2">
         <f>SUM(C37:C39)</f>
-        <v>1.9472562500000004</v>
+        <v>2.5143125</v>
       </c>
       <c r="E37" s="2">
         <f>D37^0.5</f>
-        <v>1.3954412384618711</v>
+        <v>1.5856583806104012</v>
       </c>
       <c r="F37" s="2">
         <f>B37/E37</f>
-        <v>0.47296867958946581</v>
+        <v>0.55497452084303489</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="1"/>
@@ -2756,23 +2756,23 @@
       </c>
       <c r="B38" s="2">
         <f>J14</f>
-        <v>0.7925000000000002</v>
+        <v>0.9524999999999999</v>
       </c>
       <c r="C38" s="2">
         <f t="shared" ref="C38:C39" si="8">B38^2</f>
-        <v>0.62805625000000032</v>
+        <v>0.90725624999999976</v>
       </c>
       <c r="D38" s="2">
         <f>SUM(C37:C39)</f>
-        <v>1.9472562500000004</v>
+        <v>2.5143125</v>
       </c>
       <c r="E38" s="2">
         <f t="shared" ref="E38:E39" si="9">D38^0.5</f>
-        <v>1.3954412384618711</v>
+        <v>1.5856583806104012</v>
       </c>
       <c r="F38" s="2">
         <f>B38/E38</f>
-        <v>0.56792072511310865</v>
+        <v>0.60069685352612578</v>
       </c>
       <c r="G38" s="6"/>
       <c r="H38" s="1" t="s">
@@ -2784,15 +2784,15 @@
       </c>
       <c r="J38" s="2">
         <f>I32-I25</f>
-        <v>1.131370849898476</v>
+        <v>0</v>
       </c>
       <c r="K38" s="2">
         <f>I33-J25</f>
-        <v>1.4142135623730949</v>
+        <v>0.31419211180334772</v>
       </c>
       <c r="L38" s="2">
         <f>I34-K25</f>
-        <v>0.8026135168790931</v>
+        <v>0.18288933073236358</v>
       </c>
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
@@ -2802,15 +2802,15 @@
       </c>
       <c r="Q38" s="2">
         <f>L31-H25</f>
-        <v>-0.81153434145149461</v>
+        <v>-0.50767308256680987</v>
       </c>
       <c r="R38" s="2">
         <f>L32-I25</f>
-        <v>0</v>
+        <v>-0.65538553641523256</v>
       </c>
       <c r="S38" s="2">
         <f>L33-J25</f>
-        <v>0</v>
+        <v>-0.15709605590167364</v>
       </c>
       <c r="T38" s="2">
         <f>L34-K25</f>
@@ -2825,23 +2825,23 @@
       </c>
       <c r="B39" s="2">
         <f>J15</f>
-        <v>0.94</v>
+        <v>0.91250000000000009</v>
       </c>
       <c r="C39" s="2">
         <f t="shared" si="8"/>
-        <v>0.88359999999999994</v>
+        <v>0.83265625000000021</v>
       </c>
       <c r="D39" s="2">
         <f>SUM(C37:C39)</f>
-        <v>1.9472562500000004</v>
+        <v>2.5143125</v>
       </c>
       <c r="E39" s="2">
         <f t="shared" si="9"/>
-        <v>1.3954412384618711</v>
+        <v>1.5856583806104012</v>
       </c>
       <c r="F39" s="2">
         <f>B39/E39</f>
-        <v>0.67362205880923909</v>
+        <v>0.57547073894235157</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="1" t="s">
@@ -2849,19 +2849,19 @@
       </c>
       <c r="I39" s="2">
         <f>I31-H26</f>
-        <v>0.32461373658059767</v>
+        <v>0</v>
       </c>
       <c r="J39" s="2">
         <f>I32-I26</f>
-        <v>0.56568542494923779</v>
+        <v>0.3276927682076165</v>
       </c>
       <c r="K39" s="2">
         <f>I33-J26</f>
-        <v>0.70710678118654657</v>
+        <v>0</v>
       </c>
       <c r="L39" s="2">
         <f>I34-K26</f>
-        <v>0.42280533478452176</v>
+        <v>0</v>
       </c>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
@@ -2871,19 +2871,19 @@
       </c>
       <c r="Q39" s="2">
         <f>L31-H26</f>
-        <v>-0.48692060487089694</v>
+        <v>-0.50767308256680987</v>
       </c>
       <c r="R39" s="2">
         <f>L32-I26</f>
-        <v>-0.56568542494923824</v>
+        <v>-0.32769276820761606</v>
       </c>
       <c r="S39" s="2">
         <f>L33-J26</f>
-        <v>-0.70710678118654835</v>
+        <v>-0.47128816770502135</v>
       </c>
       <c r="T39" s="2">
         <f>L34-K26</f>
-        <v>-0.37980818209457134</v>
+        <v>-0.18288933073236358</v>
       </c>
       <c r="U39" s="6"/>
       <c r="V39" s="6"/>
@@ -2901,19 +2901,19 @@
       </c>
       <c r="I40" s="2">
         <f>I31-H27</f>
-        <v>0.81153434145149461</v>
+        <v>0.50767308256680987</v>
       </c>
       <c r="J40" s="2">
         <f>I32-I27</f>
-        <v>0</v>
+        <v>0.65538553641523256</v>
       </c>
       <c r="K40" s="2">
         <f>I33-J27</f>
-        <v>0</v>
+        <v>0.47128816770502135</v>
       </c>
       <c r="L40" s="2">
         <f>I34-K27</f>
-        <v>0</v>
+        <v>0.10090445833509687</v>
       </c>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
@@ -2927,15 +2927,15 @@
       </c>
       <c r="R40" s="2">
         <f>L32-I27</f>
-        <v>-1.131370849898476</v>
+        <v>0</v>
       </c>
       <c r="S40" s="2">
         <f>L33-J27</f>
-        <v>-1.4142135623730949</v>
+        <v>0</v>
       </c>
       <c r="T40" s="2">
         <f>L34-K27</f>
-        <v>-0.8026135168790931</v>
+        <v>-8.1984872397266706E-2</v>
       </c>
       <c r="U40" s="6"/>
       <c r="V40" s="6"/>
@@ -2965,10 +2965,10 @@
       <c r="V41" s="6"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A42" s="89" t="s">
+      <c r="A42" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="B42" s="90"/>
+      <c r="B42" s="83"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -3020,7 +3020,7 @@
       </c>
       <c r="B43" s="26">
         <f>V43/(V43+N43)</f>
-        <v>0.29061307700132505</v>
+        <v>0.69888026624574828</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -3036,23 +3036,23 @@
       </c>
       <c r="J43" s="2">
         <f>J38^2</f>
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="K43" s="2">
         <f t="shared" ref="K43:L43" si="10">K38^2</f>
-        <v>1.9999999999999996</v>
+        <v>9.8716683119447354E-2</v>
       </c>
       <c r="L43" s="2">
         <f t="shared" si="10"/>
-        <v>0.64418845747702624</v>
+        <v>3.3448507295731865E-2</v>
       </c>
       <c r="M43" s="2">
         <f>SUM(I43:L43)</f>
-        <v>3.9241884574770256</v>
+        <v>0.13216519041517921</v>
       </c>
       <c r="N43" s="2">
         <f>M43^0.5</f>
-        <v>1.9809564501717412</v>
+        <v>0.36354530723856032</v>
       </c>
       <c r="O43" s="6"/>
       <c r="P43" s="1" t="s">
@@ -3060,15 +3060,15 @@
       </c>
       <c r="Q43" s="2">
         <f>Q38^2</f>
-        <v>0.65858798735511104</v>
+        <v>0.25773195876288696</v>
       </c>
       <c r="R43" s="2">
         <f>R38^2</f>
-        <v>0</v>
+        <v>0.42953020134228215</v>
       </c>
       <c r="S43" s="2">
         <f t="shared" ref="S43:T43" si="11">S38^2</f>
-        <v>0</v>
+        <v>2.4679170779861769E-2</v>
       </c>
       <c r="T43" s="2">
         <f t="shared" si="11"/>
@@ -3076,11 +3076,11 @@
       </c>
       <c r="U43" s="2">
         <f>SUM(Q43:T43)</f>
-        <v>0.65858798735511104</v>
+        <v>0.71194133088503098</v>
       </c>
       <c r="V43" s="2">
         <f>U43^0.5</f>
-        <v>0.81153434145149461</v>
+        <v>0.84376615888824968</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
@@ -3089,7 +3089,7 @@
       </c>
       <c r="B44" s="26">
         <f t="shared" ref="B44:B45" si="12">V44/(V44+N44)</f>
-        <v>0.51054558694764807</v>
+        <v>0.70624277593539386</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -3101,27 +3101,27 @@
       </c>
       <c r="I44" s="2">
         <f>I39^2</f>
-        <v>0.10537407797681765</v>
+        <v>0</v>
       </c>
       <c r="J44" s="2">
         <f t="shared" ref="I44:L45" si="13">J39^2</f>
-        <v>0.31999999999999973</v>
+        <v>0.10738255033557068</v>
       </c>
       <c r="K44" s="2">
         <f t="shared" si="13"/>
-        <v>0.49999999999999867</v>
+        <v>0</v>
       </c>
       <c r="L44" s="2">
         <f t="shared" si="13"/>
-        <v>0.17876435112225153</v>
+        <v>0</v>
       </c>
       <c r="M44" s="2">
         <f t="shared" ref="M44:M45" si="14">SUM(I44:L44)</f>
-        <v>1.1041384290990677</v>
+        <v>0.10738255033557068</v>
       </c>
       <c r="N44" s="2">
         <f t="shared" ref="N44:N45" si="15">M44^0.5</f>
-        <v>1.0507799146819794</v>
+        <v>0.3276927682076165</v>
       </c>
       <c r="O44" s="6"/>
       <c r="P44" s="1" t="s">
@@ -3129,27 +3129,27 @@
       </c>
       <c r="Q44" s="2">
         <f t="shared" ref="Q44:T45" si="16">Q39^2</f>
-        <v>0.23709167544784016</v>
+        <v>0.25773195876288696</v>
       </c>
       <c r="R44" s="2">
         <f t="shared" si="16"/>
-        <v>0.32000000000000023</v>
+        <v>0.10738255033557038</v>
       </c>
       <c r="S44" s="2">
         <f t="shared" si="16"/>
-        <v>0.50000000000000122</v>
+        <v>0.22211253701875633</v>
       </c>
       <c r="T44" s="2">
         <f t="shared" si="16"/>
-        <v>0.14425425518598306</v>
+        <v>3.3448507295731865E-2</v>
       </c>
       <c r="U44" s="2">
         <f t="shared" ref="U44:U45" si="17">SUM(Q44:T44)</f>
-        <v>1.2013459306338246</v>
+        <v>0.62067555341294556</v>
       </c>
       <c r="V44" s="2">
         <f t="shared" ref="V44:V45" si="18">U44^0.5</f>
-        <v>1.096059273321395</v>
+        <v>0.78782964745745987</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
@@ -3158,7 +3158,7 @@
       </c>
       <c r="B45" s="26">
         <f t="shared" si="12"/>
-        <v>0.7093869229986749</v>
+        <v>7.8761940846143463E-2</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -3170,27 +3170,27 @@
       </c>
       <c r="I45" s="2">
         <f t="shared" si="13"/>
-        <v>0.65858798735511104</v>
+        <v>0.25773195876288696</v>
       </c>
       <c r="J45" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.42953020134228215</v>
       </c>
       <c r="K45" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.22211253701875633</v>
       </c>
       <c r="L45" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1.0181709711899301E-2</v>
       </c>
       <c r="M45" s="2">
         <f t="shared" si="14"/>
-        <v>0.65858798735511104</v>
+        <v>0.91955640683582485</v>
       </c>
       <c r="N45" s="2">
         <f t="shared" si="15"/>
-        <v>0.81153434145149461</v>
+        <v>0.95893503786013834</v>
       </c>
       <c r="O45" s="6"/>
       <c r="P45" s="1" t="s">
@@ -3202,37 +3202,37 @@
       </c>
       <c r="R45" s="2">
         <f t="shared" si="16"/>
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="S45" s="2">
         <f t="shared" si="16"/>
-        <v>1.9999999999999996</v>
+        <v>0</v>
       </c>
       <c r="T45" s="2">
         <f t="shared" si="16"/>
-        <v>0.64418845747702624</v>
+        <v>6.7215193019961039E-3</v>
       </c>
       <c r="U45" s="2">
         <f t="shared" si="17"/>
-        <v>3.9241884574770256</v>
+        <v>6.7215193019961039E-3</v>
       </c>
       <c r="V45" s="2">
         <f t="shared" si="18"/>
-        <v>1.9809564501717412</v>
+        <v>8.1984872397266706E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="P36:T36"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="G11:J11"/>
     <mergeCell ref="H30:I30"/>
     <mergeCell ref="K30:L30"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="P36:T36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -3243,13 +3243,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -3298,13 +3298,13 @@
         <v>10</v>
       </c>
       <c r="E3" s="41"/>
-      <c r="F3" s="93" t="s">
+      <c r="F3" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="95" t="s">
+      <c r="G3" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="96"/>
+      <c r="H3" s="97"/>
       <c r="I3" s="42"/>
       <c r="J3" s="39"/>
       <c r="K3" s="39"/>
@@ -3326,7 +3326,7 @@
         <v>0.5</v>
       </c>
       <c r="E4" s="41"/>
-      <c r="F4" s="94"/>
+      <c r="F4" s="95"/>
       <c r="G4" s="40" t="s">
         <v>11</v>
       </c>
@@ -3359,11 +3359,11 @@
       </c>
       <c r="G5" s="43">
         <f>Hasil!C5</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H5" s="43">
         <f>Hasil!D5</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I5" s="47"/>
       <c r="J5" s="39"/>
@@ -3386,7 +3386,7 @@
       </c>
       <c r="H6" s="43">
         <f>Hasil!D6</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I6" s="47"/>
       <c r="J6" s="39"/>
@@ -3405,11 +3405,11 @@
       </c>
       <c r="G7" s="43">
         <f>Hasil!C7</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H7" s="43">
         <f>Hasil!D7</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I7" s="47"/>
       <c r="J7" s="39"/>
@@ -3492,15 +3492,15 @@
       </c>
       <c r="B11" s="43">
         <f>G5</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" s="43">
         <f>MAX(B11:B13)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="43">
         <f>B11/C11</f>
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E11" s="39"/>
       <c r="F11" s="52" t="s">
@@ -3508,11 +3508,11 @@
       </c>
       <c r="G11" s="51">
         <f>D11</f>
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H11" s="51">
         <f>D17</f>
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="I11" s="51">
         <f>D4/1</f>
@@ -3524,7 +3524,7 @@
       </c>
       <c r="K11" s="29">
         <f>(G11*I11)+(H11*J11)</f>
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="L11" s="39"/>
       <c r="M11" s="39"/>
@@ -3539,11 +3539,11 @@
       </c>
       <c r="C12" s="43">
         <f>MAX(B11:B13)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" s="43">
         <f t="shared" ref="D12:D13" si="0">B12/C12</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E12" s="39"/>
       <c r="F12" s="52" t="s">
@@ -3551,11 +3551,11 @@
       </c>
       <c r="G12" s="51">
         <f>D12</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H12" s="51">
         <f>D18</f>
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="I12" s="51">
         <f>D4/1</f>
@@ -3567,7 +3567,7 @@
       </c>
       <c r="K12" s="29">
         <f t="shared" ref="K12:K13" si="1">(G12*I12)+(H12*J12)</f>
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="L12" s="39"/>
       <c r="M12" s="39"/>
@@ -3578,15 +3578,15 @@
       </c>
       <c r="B13" s="43">
         <f>G7</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C13" s="43">
         <f>MAX(B11:B13)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" s="43">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E13" s="39"/>
       <c r="F13" s="52" t="s">
@@ -3594,11 +3594,11 @@
       </c>
       <c r="G13" s="51">
         <f>D13</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H13" s="51">
         <f>D19</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="I13" s="51">
         <f>D4/1</f>
@@ -3610,7 +3610,7 @@
       </c>
       <c r="K13" s="29">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="L13" s="39"/>
       <c r="M13" s="39"/>
@@ -3676,15 +3676,15 @@
       </c>
       <c r="B17" s="43">
         <f>H5</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" s="43">
         <f>MAX(B17:B19)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" s="43">
         <f>B17/C17</f>
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E17" s="39"/>
       <c r="F17" s="39"/>
@@ -3702,15 +3702,15 @@
       </c>
       <c r="B18" s="43">
         <f>H6</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" s="43">
         <f>MAX(B17:B19)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" s="43">
         <f t="shared" ref="D18:D19" si="2">B18/C18</f>
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="E18" s="39"/>
       <c r="F18" s="39"/>
@@ -3728,15 +3728,15 @@
       </c>
       <c r="B19" s="43">
         <f>H7</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C19" s="43">
         <f>MAX(B17:B19)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" s="43">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E19" s="39"/>
       <c r="F19" s="39"/>
@@ -3852,14 +3852,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.625" customWidth="1"/>
+    <col min="2" max="2" width="22.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -3916,15 +3916,15 @@
         <v>10</v>
       </c>
       <c r="E3" s="63"/>
-      <c r="F3" s="97" t="s">
+      <c r="F3" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="99" t="s">
+      <c r="G3" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="102"/>
       <c r="K3" s="61"/>
       <c r="L3" s="61"/>
       <c r="M3" s="61"/>
@@ -3948,7 +3948,7 @@
         <v>0.1</v>
       </c>
       <c r="E4" s="63"/>
-      <c r="F4" s="98"/>
+      <c r="F4" s="99"/>
       <c r="G4" s="62" t="s">
         <v>11</v>
       </c>
@@ -3989,11 +3989,11 @@
       </c>
       <c r="G5" s="64">
         <f>Hasil!E5</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H5" s="64">
         <f>Hasil!F5</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I5" s="64">
         <f>Hasil!G5</f>
@@ -4039,7 +4039,7 @@
       </c>
       <c r="I6" s="64">
         <f>Hasil!G6</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J6" s="69">
         <f>Hasil!H6</f>
@@ -4073,19 +4073,19 @@
       </c>
       <c r="G7" s="64">
         <f>Hasil!E7</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H7" s="64">
         <f>Hasil!F7</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I7" s="64">
         <f>Hasil!G7</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J7" s="69">
         <f>Hasil!H7</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K7" s="61"/>
       <c r="L7" s="61"/>
@@ -4190,15 +4190,15 @@
       </c>
       <c r="B11" s="64">
         <f>G5</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="64">
         <f>MAX(B11:B13)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="64">
         <f>B11/C11</f>
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E11" s="61"/>
       <c r="F11" s="70" t="s">
@@ -4206,19 +4206,19 @@
       </c>
       <c r="G11" s="69">
         <f>D11</f>
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H11" s="69">
         <f>D17</f>
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="I11" s="69">
         <f>D23</f>
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="J11" s="69">
         <f>D29</f>
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="K11" s="69">
         <f>D4/1</f>
@@ -4238,7 +4238,7 @@
       </c>
       <c r="O11" s="57">
         <f>(G11*K11)+(H11*L11)+(I11*M11)+(J11*N11)</f>
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="P11" s="61"/>
       <c r="Q11" s="22"/>
@@ -4253,11 +4253,11 @@
       </c>
       <c r="C12" s="64">
         <f>MAX(B11:B13)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" s="64">
         <f t="shared" ref="D12:D13" si="0">B12/C12</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E12" s="61"/>
       <c r="F12" s="70" t="s">
@@ -4265,19 +4265,19 @@
       </c>
       <c r="G12" s="69">
         <f>D12</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H12" s="69">
         <f>D18</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I12" s="69">
         <f t="shared" ref="I12:I13" si="1">D24</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J12" s="69">
         <f t="shared" ref="J12:J13" si="2">D30</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K12" s="69">
         <f>D4/1</f>
@@ -4297,7 +4297,7 @@
       </c>
       <c r="O12" s="57">
         <f t="shared" ref="O12:O13" si="3">(G12*K12)+(H12*L12)+(I12*M12)+(J12*N12)</f>
-        <v>0.80000000000000016</v>
+        <v>1</v>
       </c>
       <c r="P12" s="61"/>
       <c r="Q12" s="22"/>
@@ -4308,11 +4308,11 @@
       </c>
       <c r="B13" s="64">
         <f>G7</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" s="64">
         <f>MAX(B11:B13)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" s="64">
         <f t="shared" si="0"/>
@@ -4328,7 +4328,7 @@
       </c>
       <c r="H13" s="69">
         <f>D19</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="I13" s="69">
         <f t="shared" si="1"/>
@@ -4336,7 +4336,7 @@
       </c>
       <c r="J13" s="69">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K13" s="69">
         <f>D4/1</f>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="O13" s="57">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="P13" s="61"/>
       <c r="Q13" s="22"/>
@@ -4434,15 +4434,15 @@
       </c>
       <c r="B17" s="64">
         <f>H5</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" s="64">
         <f>MAX(B17:B19)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" s="64">
         <f>B17/C17</f>
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E17" s="61"/>
       <c r="F17" s="61"/>
@@ -4468,11 +4468,11 @@
       </c>
       <c r="C18" s="64">
         <f>MAX(B17:B19)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" s="64">
         <f t="shared" ref="D18:D19" si="4">B18/C18</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E18" s="61"/>
       <c r="F18" s="61"/>
@@ -4494,15 +4494,15 @@
       </c>
       <c r="B19" s="64">
         <f>H7</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C19" s="64">
         <f>MAX(B17:B19)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" s="64">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E19" s="61"/>
       <c r="F19" s="61"/>
@@ -4595,11 +4595,11 @@
       </c>
       <c r="C23" s="64">
         <f>MAX(B23:B25)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" s="64">
         <f>B23/C23</f>
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E23" s="61"/>
       <c r="F23" s="61"/>
@@ -4621,15 +4621,15 @@
       </c>
       <c r="B24" s="64">
         <f t="shared" ref="B24:B25" si="5">I6</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24" s="64">
         <f>MAX(B23:B25)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" s="64">
         <f t="shared" ref="D24:D25" si="6">B24/C24</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E24" s="61"/>
       <c r="F24" s="61"/>
@@ -4651,11 +4651,11 @@
       </c>
       <c r="B25" s="64">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C25" s="64">
         <f>MAX(B23:B25)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" s="64">
         <f t="shared" si="6"/>
@@ -4749,11 +4749,11 @@
       </c>
       <c r="C29" s="64">
         <f>MAX(B29:B31)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" s="64">
         <f>B29/C29</f>
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="E29" s="61"/>
       <c r="F29" s="61"/>
@@ -4778,11 +4778,11 @@
       </c>
       <c r="C30" s="64">
         <f>MAX(B29:B31)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" s="64">
         <f t="shared" ref="D30:D31" si="8">B30/C30</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E30" s="61"/>
       <c r="F30" s="61"/>
@@ -4803,15 +4803,15 @@
       </c>
       <c r="B31" s="64">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C31" s="64">
         <f>MAX(B29:B31)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" s="64">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E31" s="61"/>
       <c r="F31" s="61"/>
@@ -4846,9 +4846,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.75" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
@@ -4905,16 +4905,16 @@
         <v>10</v>
       </c>
       <c r="E3" s="34"/>
-      <c r="F3" s="102" t="s">
+      <c r="F3" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="89" t="s">
+      <c r="G3" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="90"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="83"/>
       <c r="L3" s="32"/>
       <c r="M3" s="32"/>
       <c r="N3" s="32"/>
@@ -4937,7 +4937,7 @@
         <v>0.5</v>
       </c>
       <c r="E4" s="34"/>
-      <c r="F4" s="103"/>
+      <c r="F4" s="104"/>
       <c r="G4" s="33" t="s">
         <v>11</v>
       </c>
@@ -4980,15 +4980,15 @@
       </c>
       <c r="G5" s="77">
         <f>Hasil!I5</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H5" s="77">
         <f>Hasil!J5</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" s="77">
         <f>Hasil!K5</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J5" s="79">
         <f>Hasil!L5</f>
@@ -5069,15 +5069,15 @@
       </c>
       <c r="G7" s="77">
         <f>Hasil!I7</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H7" s="77">
         <f>Hasil!J7</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I7" s="77">
         <f>Hasil!K7</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J7" s="79">
         <f>Hasil!L7</f>
@@ -5085,7 +5085,7 @@
       </c>
       <c r="K7" s="79">
         <f>Hasil!M7</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L7" s="32"/>
       <c r="M7" s="32"/>
@@ -5198,15 +5198,15 @@
       </c>
       <c r="B11" s="35">
         <f>G5</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" s="35">
         <f>MAX(B11:B13)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="35">
         <f>B11/C11</f>
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E11" s="32"/>
       <c r="F11" s="24" t="s">
@@ -5214,15 +5214,15 @@
       </c>
       <c r="G11" s="25">
         <f>D11</f>
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H11" s="25">
         <f>D17</f>
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I11" s="25">
         <f>D23</f>
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="J11" s="25">
         <f>D29</f>
@@ -5254,19 +5254,19 @@
       </c>
       <c r="Q11" s="29">
         <f>(G11*L11)+(H11*M11)+(I11*N11)+(J11*O11)+(K11*P11)</f>
-        <v>0.66</v>
+        <v>0.88</v>
       </c>
       <c r="R11" s="5">
         <f>(G11*L11)</f>
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="S11">
         <f>(H11*M11)</f>
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="T11">
         <f>(I11*N11)</f>
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="U11">
         <f>(J11*O11)</f>
@@ -5287,11 +5287,11 @@
       </c>
       <c r="C12" s="35">
         <f>MAX(B11:B13)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" s="35">
         <f t="shared" ref="D12:D13" si="0">B12/C12</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E12" s="32"/>
       <c r="F12" s="24" t="s">
@@ -5299,15 +5299,15 @@
       </c>
       <c r="G12" s="25">
         <f>D12</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H12" s="25">
         <f>D18</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I12" s="25">
         <f t="shared" ref="I12:I13" si="1">D24</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J12" s="25">
         <f t="shared" ref="J12:J13" si="2">D30</f>
@@ -5339,7 +5339,7 @@
       </c>
       <c r="Q12" s="29">
         <f t="shared" ref="Q12:Q13" si="4">(G12*L12)+(H12*M12)+(I12*N12)+(J12*O12)+(K12*P12)</f>
-        <v>0.7925000000000002</v>
+        <v>0.9524999999999999</v>
       </c>
       <c r="R12" s="5"/>
     </row>
@@ -5349,11 +5349,11 @@
       </c>
       <c r="B13" s="35">
         <f>G7</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" s="35">
         <f>MAX(B11:B13)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" s="35">
         <f t="shared" si="0"/>
@@ -5369,7 +5369,7 @@
       </c>
       <c r="H13" s="25">
         <f>D19</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="I13" s="25">
         <f t="shared" si="1"/>
@@ -5381,7 +5381,7 @@
       </c>
       <c r="K13" s="25">
         <f t="shared" si="3"/>
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="L13" s="25">
         <f>D4/1</f>
@@ -5405,7 +5405,7 @@
       </c>
       <c r="Q13" s="29">
         <f t="shared" si="4"/>
-        <v>0.94</v>
+        <v>0.91250000000000009</v>
       </c>
       <c r="R13" s="5"/>
     </row>
@@ -5482,15 +5482,15 @@
       </c>
       <c r="B17" s="35">
         <f>H5</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" s="35">
         <f>MAX(B17:B19)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" s="35">
         <f>B17/C17</f>
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
@@ -5516,11 +5516,11 @@
       </c>
       <c r="C18" s="35">
         <f>MAX(B17:B19)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" s="35">
         <f t="shared" ref="D18:D19" si="5">B18/C18</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="32"/>
@@ -5542,15 +5542,15 @@
       </c>
       <c r="B19" s="35">
         <f>H7</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C19" s="35">
         <f>MAX(B17:B19)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" s="35">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
@@ -5639,15 +5639,15 @@
       </c>
       <c r="B23" s="35">
         <f>I5</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C23" s="35">
         <f>MAX(B23:B25)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" s="35">
         <f>B23/C23</f>
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E23" s="32"/>
       <c r="F23" s="32"/>
@@ -5673,11 +5673,11 @@
       </c>
       <c r="C24" s="35">
         <f>MAX(B23:B25)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" s="35">
         <f t="shared" ref="D24:D25" si="7">B24/C24</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E24" s="32"/>
       <c r="F24" s="32"/>
@@ -5699,11 +5699,11 @@
       </c>
       <c r="B25" s="35">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25" s="35">
         <f>MAX(B23:B25)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" s="35">
         <f t="shared" si="7"/>
@@ -6013,7 +6013,7 @@
       </c>
       <c r="B37" s="35">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C37" s="35">
         <f>MIN(B35:B37)</f>
@@ -6021,7 +6021,7 @@
       </c>
       <c r="D37" s="35">
         <f t="shared" si="11"/>
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="E37" s="32"/>
       <c r="F37" s="32"/>
@@ -6054,21 +6054,21 @@
       <selection sqref="A1:V37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="16.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.75" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.25" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="3"/>
+    <col min="15" max="16384" width="9.125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
@@ -6135,7 +6135,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="6"/>
-      <c r="F3" s="91" t="s">
+      <c r="F3" s="84" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="86" t="s">
@@ -6172,7 +6172,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="F4" s="92"/>
+      <c r="F4" s="85"/>
       <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
@@ -6218,7 +6218,7 @@
       </c>
       <c r="G5" s="2">
         <f>Hasil!B5</f>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H5" s="2" t="e">
         <f>Hasil!#REF!</f>
@@ -6226,11 +6226,11 @@
       </c>
       <c r="I5" s="2">
         <f>Hasil!C5</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J5" s="2">
         <f>Hasil!D5</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="J6" s="2">
         <f>Hasil!D6</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
@@ -6320,11 +6320,11 @@
       </c>
       <c r="I7" s="2">
         <f>Hasil!C7</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J7" s="2">
         <f>Hasil!D7</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
@@ -6447,28 +6447,28 @@
       </c>
       <c r="B11" s="2">
         <f>G5</f>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C11" s="2">
         <f>B11^2</f>
-        <v>10000</v>
+        <v>8100</v>
       </c>
       <c r="D11" s="2">
         <f>SUM(B11:B13)</f>
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="E11" s="2">
         <f>D11^0.5</f>
-        <v>16.278820596099706</v>
+        <v>15.968719422671311</v>
       </c>
       <c r="F11" s="2">
         <f>B11/E11</f>
-        <v>6.1429511683395122</v>
+        <v>5.6360186197663458</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="2">
         <f>F11</f>
-        <v>6.1429511683395122</v>
+        <v>5.6360186197663458</v>
       </c>
       <c r="I11" s="2" t="e">
         <f>F17</f>
@@ -6476,11 +6476,11 @@
       </c>
       <c r="J11" s="2">
         <f>F23</f>
-        <v>0.86602540378443871</v>
+        <v>1.2060453783110545</v>
       </c>
       <c r="K11" s="2">
         <f>F29</f>
-        <v>0.86602540378443871</v>
+        <v>1.2649110640673518</v>
       </c>
       <c r="L11" s="2">
         <f>D4/1</f>
@@ -6520,20 +6520,20 @@
       </c>
       <c r="D12" s="2">
         <f>SUM(B11:B13)</f>
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" ref="E12:E13" si="1">D12^0.5</f>
-        <v>16.278820596099706</v>
+        <v>15.968719422671311</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" ref="F12:F13" si="2">B12/E12</f>
-        <v>5.5286560515055605</v>
+        <v>5.6360186197663458</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="2">
         <f>F12</f>
-        <v>5.5286560515055605</v>
+        <v>5.6360186197663458</v>
       </c>
       <c r="I12" s="2" t="e">
         <f>F18</f>
@@ -6541,11 +6541,11 @@
       </c>
       <c r="J12" s="2">
         <f>F24</f>
-        <v>1.1547005383792517</v>
+        <v>1.2060453783110545</v>
       </c>
       <c r="K12" s="2">
         <f>F30</f>
-        <v>1.1547005383792517</v>
+        <v>0.94868329805051377</v>
       </c>
       <c r="L12" s="2">
         <f>D4/1</f>
@@ -6585,20 +6585,20 @@
       </c>
       <c r="D13" s="2">
         <f>SUM(B11:B13)</f>
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="1"/>
-        <v>16.278820596099706</v>
+        <v>15.968719422671311</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="2"/>
-        <v>4.6072133762546343</v>
+        <v>4.6966821831386216</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="2">
         <f>F13</f>
-        <v>4.6072133762546343</v>
+        <v>4.6966821831386216</v>
       </c>
       <c r="I13" s="2" t="e">
         <f>F19</f>
@@ -6606,11 +6606,11 @@
       </c>
       <c r="J13" s="2">
         <f>F25</f>
-        <v>1.4433756729740645</v>
+        <v>0.90453403373329089</v>
       </c>
       <c r="K13" s="2">
         <f>F31</f>
-        <v>1.4433756729740645</v>
+        <v>0.94868329805051377</v>
       </c>
       <c r="L13" s="2">
         <f>D4/1</f>
@@ -6757,7 +6757,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="2">
         <f>H11*L11</f>
-        <v>12.285902336679024</v>
+        <v>11.272037239532692</v>
       </c>
       <c r="I17" s="2" t="e">
         <f>I11*M11</f>
@@ -6765,11 +6765,11 @@
       </c>
       <c r="J17" s="2">
         <f>J11*N11</f>
-        <v>2.598076211353316</v>
+        <v>3.6181361349331636</v>
       </c>
       <c r="K17" s="2">
         <f>K11*O11</f>
-        <v>2.598076211353316</v>
+        <v>3.7947331922020551</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
@@ -6810,7 +6810,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="2">
         <f t="shared" ref="H18:H19" si="6">H12*L12</f>
-        <v>11.057312103011121</v>
+        <v>11.272037239532692</v>
       </c>
       <c r="I18" s="2" t="e">
         <f t="shared" ref="I18:I19" si="7">I12*M12</f>
@@ -6818,11 +6818,11 @@
       </c>
       <c r="J18" s="2">
         <f t="shared" ref="J18:J19" si="8">J12*N12</f>
-        <v>3.4641016151377553</v>
+        <v>3.6181361349331636</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" ref="K18:K19" si="9">K12*O12</f>
-        <v>3.4641016151377553</v>
+        <v>2.8460498941515411</v>
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
@@ -6863,7 +6863,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="2">
         <f t="shared" si="6"/>
-        <v>9.2144267525092687</v>
+        <v>9.3933643662772432</v>
       </c>
       <c r="I19" s="2" t="e">
         <f t="shared" si="7"/>
@@ -6871,11 +6871,11 @@
       </c>
       <c r="J19" s="2">
         <f t="shared" si="8"/>
-        <v>4.3301270189221936</v>
+        <v>2.7136021011998728</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="9"/>
-        <v>4.3301270189221936</v>
+        <v>2.8460498941515411</v>
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
@@ -6985,23 +6985,23 @@
       </c>
       <c r="B23" s="2">
         <f>I5</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C23" s="2">
         <f>B23^2</f>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D23" s="2">
         <f>SUM(B23:B25)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E23" s="2">
         <f>D23^0.5</f>
-        <v>3.4641016151377544</v>
+        <v>3.3166247903553998</v>
       </c>
       <c r="F23" s="2">
         <f>B23/E23</f>
-        <v>0.86602540378443871</v>
+        <v>1.2060453783110545</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="7" t="s">
@@ -7009,7 +7009,7 @@
       </c>
       <c r="I23" s="2">
         <f>MAX(H17:H19)</f>
-        <v>12.285902336679024</v>
+        <v>11.272037239532692</v>
       </c>
       <c r="J23" s="6"/>
       <c r="K23" s="2" t="s">
@@ -7017,7 +7017,7 @@
       </c>
       <c r="L23" s="2">
         <f>MIN(H17:H19)</f>
-        <v>9.2144267525092687</v>
+        <v>9.3933643662772432</v>
       </c>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
@@ -7044,15 +7044,15 @@
       </c>
       <c r="D24" s="2">
         <f>SUM(B23:B25)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" ref="E24:E25" si="11">D24^0.5</f>
-        <v>3.4641016151377544</v>
+        <v>3.3166247903553998</v>
       </c>
       <c r="F24" s="2">
         <f t="shared" ref="F24:F25" si="12">B24/E24</f>
-        <v>1.1547005383792517</v>
+        <v>1.2060453783110545</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="2" t="s">
@@ -7087,23 +7087,23 @@
       </c>
       <c r="B25" s="2">
         <f>I7</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="10"/>
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2">
         <f>SUM(B23:B25)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="11"/>
-        <v>3.4641016151377544</v>
+        <v>3.3166247903553998</v>
       </c>
       <c r="F25" s="2">
         <f t="shared" si="12"/>
-        <v>1.4433756729740645</v>
+        <v>0.90453403373329089</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="2" t="s">
@@ -7111,7 +7111,7 @@
       </c>
       <c r="I25" s="2">
         <f>MAX(J17:J19)</f>
-        <v>4.3301270189221936</v>
+        <v>3.6181361349331636</v>
       </c>
       <c r="J25" s="6"/>
       <c r="K25" s="2" t="s">
@@ -7119,7 +7119,7 @@
       </c>
       <c r="L25" s="2">
         <f>MIN(J17:J19)</f>
-        <v>2.598076211353316</v>
+        <v>2.7136021011998728</v>
       </c>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
@@ -7145,7 +7145,7 @@
       </c>
       <c r="I26" s="2">
         <f>MAX(K17:K19)</f>
-        <v>4.3301270189221936</v>
+        <v>3.7947331922020551</v>
       </c>
       <c r="J26" s="6"/>
       <c r="K26" s="2" t="s">
@@ -7153,7 +7153,7 @@
       </c>
       <c r="L26" s="2">
         <f>MIN(K17:K19)</f>
-        <v>2.598076211353316</v>
+        <v>2.8460498941515411</v>
       </c>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
@@ -7238,23 +7238,23 @@
       </c>
       <c r="B29" s="2">
         <f>J5</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C29" s="2">
         <f>B29^2</f>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D29" s="2">
         <f>SUM(B29:B31)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E29" s="2">
         <f>D29^0.5</f>
-        <v>3.4641016151377544</v>
+        <v>3.1622776601683795</v>
       </c>
       <c r="F29" s="2">
         <f>B29/E29</f>
-        <v>0.86602540378443871</v>
+        <v>1.2649110640673518</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="1"/>
@@ -7295,23 +7295,23 @@
       </c>
       <c r="B30" s="2">
         <f>J6</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" ref="C30:C31" si="13">B30^2</f>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2">
         <f>SUM(B29:B31)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" ref="E30:E31" si="14">D30^0.5</f>
-        <v>3.4641016151377544</v>
+        <v>3.1622776601683795</v>
       </c>
       <c r="F30" s="2">
         <f t="shared" ref="F30:F31" si="15">B30/E30</f>
-        <v>1.1547005383792517</v>
+        <v>0.94868329805051377</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="1" t="s">
@@ -7327,11 +7327,11 @@
       </c>
       <c r="K30" s="2">
         <f>I25-J17</f>
-        <v>1.7320508075688776</v>
+        <v>0</v>
       </c>
       <c r="L30" s="2">
         <f>I26-K17</f>
-        <v>1.7320508075688776</v>
+        <v>0</v>
       </c>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
@@ -7341,7 +7341,7 @@
       </c>
       <c r="Q30" s="2">
         <f>L23-H17</f>
-        <v>-3.0714755841697556</v>
+        <v>-1.8786728732554483</v>
       </c>
       <c r="R30" s="2" t="e">
         <f>L24-I17</f>
@@ -7349,11 +7349,11 @@
       </c>
       <c r="S30" s="2">
         <f>L25-J17</f>
-        <v>0</v>
+        <v>-0.90453403373329078</v>
       </c>
       <c r="T30" s="2">
         <f>L26-K17</f>
-        <v>0</v>
+        <v>-0.94868329805051399</v>
       </c>
       <c r="U30" s="6"/>
       <c r="V30" s="6"/>
@@ -7364,23 +7364,23 @@
       </c>
       <c r="B31" s="2">
         <f>J7</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" si="13"/>
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2">
         <f>SUM(B29:B31)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" si="14"/>
-        <v>3.4641016151377544</v>
+        <v>3.1622776601683795</v>
       </c>
       <c r="F31" s="2">
         <f t="shared" si="15"/>
-        <v>1.4433756729740645</v>
+        <v>0.94868329805051377</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="1" t="s">
@@ -7388,7 +7388,7 @@
       </c>
       <c r="I31" s="2">
         <f>I23-H18</f>
-        <v>1.2285902336679033</v>
+        <v>0</v>
       </c>
       <c r="J31" s="2" t="e">
         <f>I24-I18</f>
@@ -7396,11 +7396,11 @@
       </c>
       <c r="K31" s="2">
         <f>I25-J18</f>
-        <v>0.86602540378443837</v>
+        <v>0</v>
       </c>
       <c r="L31" s="2">
         <f>I26-K18</f>
-        <v>0.86602540378443837</v>
+        <v>0.94868329805051399</v>
       </c>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
@@ -7410,7 +7410,7 @@
       </c>
       <c r="Q31" s="2">
         <f>L23-H18</f>
-        <v>-1.8428853505018523</v>
+        <v>-1.8786728732554483</v>
       </c>
       <c r="R31" s="2" t="e">
         <f>L24-I18</f>
@@ -7418,11 +7418,11 @@
       </c>
       <c r="S31" s="2">
         <f>L25-J18</f>
-        <v>-0.86602540378443926</v>
+        <v>-0.90453403373329078</v>
       </c>
       <c r="T31" s="2">
         <f>L26-K18</f>
-        <v>-0.86602540378443926</v>
+        <v>0</v>
       </c>
       <c r="U31" s="6"/>
       <c r="V31" s="6"/>
@@ -7440,7 +7440,7 @@
       </c>
       <c r="I32" s="2">
         <f>I23-H19</f>
-        <v>3.0714755841697556</v>
+        <v>1.8786728732554483</v>
       </c>
       <c r="J32" s="2" t="e">
         <f>I24-I19</f>
@@ -7448,11 +7448,11 @@
       </c>
       <c r="K32" s="2">
         <f>I25-J19</f>
-        <v>0</v>
+        <v>0.90453403373329078</v>
       </c>
       <c r="L32" s="2">
         <f>I26-K19</f>
-        <v>0</v>
+        <v>0.94868329805051399</v>
       </c>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
@@ -7470,11 +7470,11 @@
       </c>
       <c r="S32" s="2">
         <f>L25-J19</f>
-        <v>-1.7320508075688776</v>
+        <v>0</v>
       </c>
       <c r="T32" s="2">
         <f>L26-K19</f>
-        <v>-1.7320508075688776</v>
+        <v>0</v>
       </c>
       <c r="U32" s="6"/>
       <c r="V32" s="6"/>
@@ -7504,10 +7504,10 @@
       <c r="V33" s="6"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A34" s="89" t="s">
+      <c r="A34" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="B34" s="90"/>
+      <c r="B34" s="83"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
@@ -7579,11 +7579,11 @@
       </c>
       <c r="K35" s="2">
         <f t="shared" ref="K35:L35" si="16">K30^2</f>
-        <v>3.0000000000000013</v>
+        <v>0</v>
       </c>
       <c r="L35" s="2">
         <f t="shared" si="16"/>
-        <v>3.0000000000000013</v>
+        <v>0</v>
       </c>
       <c r="M35" s="2" t="e">
         <f>SUM(I35:L35)</f>
@@ -7599,7 +7599,7 @@
       </c>
       <c r="Q35" s="2">
         <f>Q30^2</f>
-        <v>9.4339622641509422</v>
+        <v>3.5294117647058818</v>
       </c>
       <c r="R35" s="2" t="e">
         <f>R30^2</f>
@@ -7607,11 +7607,11 @@
       </c>
       <c r="S35" s="2">
         <f t="shared" ref="S35:T35" si="17">S30^2</f>
-        <v>0</v>
+        <v>0.81818181818181801</v>
       </c>
       <c r="T35" s="2">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>0.90000000000000036</v>
       </c>
       <c r="U35" s="2" t="e">
         <f>SUM(Q35:T35)</f>
@@ -7640,7 +7640,7 @@
       </c>
       <c r="I36" s="2">
         <f t="shared" ref="I36:L37" si="19">I31^2</f>
-        <v>1.5094339622641533</v>
+        <v>0</v>
       </c>
       <c r="J36" s="2" t="e">
         <f t="shared" si="19"/>
@@ -7648,11 +7648,11 @@
       </c>
       <c r="K36" s="2">
         <f t="shared" si="19"/>
-        <v>0.74999999999999956</v>
+        <v>0</v>
       </c>
       <c r="L36" s="2">
         <f t="shared" si="19"/>
-        <v>0.74999999999999956</v>
+        <v>0.90000000000000036</v>
       </c>
       <c r="M36" s="2" t="e">
         <f t="shared" ref="M36:M37" si="20">SUM(I36:L36)</f>
@@ -7668,7 +7668,7 @@
       </c>
       <c r="Q36" s="2">
         <f t="shared" ref="Q36:T36" si="22">Q31^2</f>
-        <v>3.3962264150943349</v>
+        <v>3.5294117647058818</v>
       </c>
       <c r="R36" s="2" t="e">
         <f t="shared" si="22"/>
@@ -7676,11 +7676,11 @@
       </c>
       <c r="S36" s="2">
         <f t="shared" si="22"/>
-        <v>0.75000000000000111</v>
+        <v>0.81818181818181801</v>
       </c>
       <c r="T36" s="2">
         <f t="shared" si="22"/>
-        <v>0.75000000000000111</v>
+        <v>0</v>
       </c>
       <c r="U36" s="2" t="e">
         <f t="shared" ref="U36:U37" si="23">SUM(Q36:T36)</f>
@@ -7709,7 +7709,7 @@
       </c>
       <c r="I37" s="2">
         <f t="shared" si="19"/>
-        <v>9.4339622641509422</v>
+        <v>3.5294117647058818</v>
       </c>
       <c r="J37" s="2" t="e">
         <f t="shared" si="19"/>
@@ -7717,11 +7717,11 @@
       </c>
       <c r="K37" s="2">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>0.81818181818181801</v>
       </c>
       <c r="L37" s="2">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>0.90000000000000036</v>
       </c>
       <c r="M37" s="2" t="e">
         <f t="shared" si="20"/>
@@ -7745,11 +7745,11 @@
       </c>
       <c r="S37" s="2">
         <f t="shared" si="25"/>
-        <v>3.0000000000000013</v>
+        <v>0</v>
       </c>
       <c r="T37" s="2">
         <f t="shared" si="25"/>
-        <v>3.0000000000000013</v>
+        <v>0</v>
       </c>
       <c r="U37" s="2" t="e">
         <f t="shared" si="23"/>
@@ -7793,15 +7793,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.75" customWidth="1"/>
+    <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.625" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
@@ -7864,7 +7864,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="6"/>
-      <c r="F3" s="91" t="s">
+      <c r="F3" s="84" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="86" t="s">
@@ -7899,7 +7899,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="F4" s="92"/>
+      <c r="F4" s="85"/>
       <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
@@ -7941,7 +7941,7 @@
       </c>
       <c r="G5" s="2">
         <f>Hasil!F5</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H5" s="19">
         <f>Hasil!G5</f>
@@ -7987,7 +7987,7 @@
       </c>
       <c r="H6" s="19">
         <f>Hasil!G6</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I6" s="2">
         <f>Hasil!H6</f>
@@ -8016,15 +8016,15 @@
       </c>
       <c r="G7" s="2">
         <f>Hasil!F7</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H7" s="19">
         <f>Hasil!G7</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I7" s="2">
         <f>Hasil!H7</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J7" s="16"/>
       <c r="K7" s="18"/>
@@ -8140,36 +8140,36 @@
       </c>
       <c r="B11" s="2">
         <f>G5</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" s="2">
         <f>B11^2</f>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D11" s="2">
         <f>SUM(B11:B13)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" s="2">
         <f>D11^0.5</f>
-        <v>3.4641016151377544</v>
+        <v>3.3166247903553998</v>
       </c>
       <c r="F11" s="2">
         <f>B11/E11</f>
-        <v>0.86602540378443871</v>
+        <v>1.2060453783110545</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="2">
         <f>F11</f>
-        <v>0.86602540378443871</v>
+        <v>1.2060453783110545</v>
       </c>
       <c r="I11" s="2">
         <f>F17</f>
-        <v>0.86602540378443871</v>
+        <v>1</v>
       </c>
       <c r="J11" s="2">
         <f>F23</f>
-        <v>0.86602540378443871</v>
+        <v>0.94868329805051377</v>
       </c>
       <c r="K11" s="2">
         <f>D4/1</f>
@@ -8207,28 +8207,28 @@
       </c>
       <c r="D12" s="2">
         <f>SUM(B11:B13)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" ref="E12:E13" si="1">D12^0.5</f>
-        <v>3.4641016151377544</v>
+        <v>3.3166247903553998</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" ref="F12:F13" si="2">B12/E12</f>
-        <v>1.1547005383792517</v>
+        <v>1.2060453783110545</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="2">
         <f>F12</f>
-        <v>1.1547005383792517</v>
+        <v>1.2060453783110545</v>
       </c>
       <c r="I12" s="2">
         <f>F18</f>
-        <v>1.1547005383792517</v>
+        <v>1</v>
       </c>
       <c r="J12" s="2">
         <f>F24</f>
-        <v>1.1547005383792517</v>
+        <v>1.2649110640673518</v>
       </c>
       <c r="K12" s="2">
         <f>D4/1</f>
@@ -8258,36 +8258,36 @@
       </c>
       <c r="B13" s="2">
         <f>G7</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2">
         <f>SUM(B11:B13)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="1"/>
-        <v>3.4641016151377544</v>
+        <v>3.3166247903553998</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="2"/>
-        <v>1.4433756729740645</v>
+        <v>0.90453403373329089</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="2">
         <f>F13</f>
-        <v>1.4433756729740645</v>
+        <v>0.90453403373329089</v>
       </c>
       <c r="I13" s="2">
         <f>F19</f>
-        <v>1.4433756729740645</v>
+        <v>1</v>
       </c>
       <c r="J13" s="2">
         <f>F25</f>
-        <v>1.4433756729740645</v>
+        <v>0.94868329805051377</v>
       </c>
       <c r="K13" s="2">
         <f>D4/1</f>
@@ -8417,28 +8417,28 @@
       </c>
       <c r="D17" s="2">
         <f>SUM(B17:B19)</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E17" s="2">
         <f>D17^0.5</f>
-        <v>3.4641016151377544</v>
+        <v>3</v>
       </c>
       <c r="F17" s="2">
         <f>B17/E17</f>
-        <v>0.86602540378443871</v>
+        <v>1</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="2">
         <f t="shared" ref="H17:J19" si="3">H11*K11</f>
-        <v>2.598076211353316</v>
+        <v>3.6181361349331636</v>
       </c>
       <c r="I17" s="2">
         <f t="shared" si="3"/>
-        <v>3.4641016151377548</v>
+        <v>4</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="3"/>
-        <v>2.598076211353316</v>
+        <v>2.8460498941515411</v>
       </c>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
@@ -8459,36 +8459,36 @@
       </c>
       <c r="B18" s="2">
         <f>H6</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" ref="C18:C19" si="4">B18^2</f>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2">
         <f>SUM(B17:B19)</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" ref="E18:E19" si="5">D18^0.5</f>
-        <v>3.4641016151377544</v>
+        <v>3</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" ref="F18:F19" si="6">B18/E18</f>
-        <v>1.1547005383792517</v>
+        <v>1</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="2">
         <f t="shared" si="3"/>
-        <v>3.4641016151377553</v>
+        <v>3.6181361349331636</v>
       </c>
       <c r="I18" s="2">
         <f t="shared" si="3"/>
-        <v>4.6188021535170067</v>
+        <v>4</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="3"/>
-        <v>3.4641016151377553</v>
+        <v>3.7947331922020551</v>
       </c>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
@@ -8509,36 +8509,36 @@
       </c>
       <c r="B19" s="2">
         <f>H7</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2">
         <f>SUM(B17:B19)</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="5"/>
-        <v>3.4641016151377544</v>
+        <v>3</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" si="6"/>
-        <v>1.4433756729740645</v>
+        <v>1</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="2">
         <f t="shared" si="3"/>
-        <v>4.3301270189221936</v>
+        <v>2.7136021011998728</v>
       </c>
       <c r="I19" s="2">
         <f t="shared" si="3"/>
-        <v>5.7735026918962582</v>
+        <v>4</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="3"/>
-        <v>4.3301270189221936</v>
+        <v>2.8460498941515411</v>
       </c>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
@@ -8657,15 +8657,15 @@
       </c>
       <c r="D23" s="2">
         <f>SUM(B23:B25)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E23" s="2">
         <f>D23^0.5</f>
-        <v>3.4641016151377544</v>
+        <v>3.1622776601683795</v>
       </c>
       <c r="F23" s="2">
         <f>B23/E23</f>
-        <v>0.86602540378443871</v>
+        <v>0.94868329805051377</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="7" t="s">
@@ -8673,7 +8673,7 @@
       </c>
       <c r="I23" s="2">
         <f>MAX(H17:H19)</f>
-        <v>4.3301270189221936</v>
+        <v>3.6181361349331636</v>
       </c>
       <c r="J23" s="6"/>
       <c r="K23" s="2" t="s">
@@ -8681,7 +8681,7 @@
       </c>
       <c r="L23" s="2">
         <f>MIN(H17:H19)</f>
-        <v>2.598076211353316</v>
+        <v>2.7136021011998728</v>
       </c>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
@@ -8708,15 +8708,15 @@
       </c>
       <c r="D24" s="2">
         <f>SUM(B23:B25)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" ref="E24:E25" si="8">D24^0.5</f>
-        <v>3.4641016151377544</v>
+        <v>3.1622776601683795</v>
       </c>
       <c r="F24" s="2">
         <f t="shared" ref="F24:F25" si="9">B24/E24</f>
-        <v>1.1547005383792517</v>
+        <v>1.2649110640673518</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="2" t="s">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="I24" s="2">
         <f>MAX(I17:I19)</f>
-        <v>5.7735026918962582</v>
+        <v>4</v>
       </c>
       <c r="J24" s="6"/>
       <c r="K24" s="2" t="s">
@@ -8732,7 +8732,7 @@
       </c>
       <c r="L24" s="2">
         <f>MIN(I17:I19)</f>
-        <v>3.4641016151377548</v>
+        <v>4</v>
       </c>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
@@ -8751,23 +8751,23 @@
       </c>
       <c r="B25" s="2">
         <f>I7</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="7"/>
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2">
         <f>SUM(B23:B25)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="8"/>
-        <v>3.4641016151377544</v>
+        <v>3.1622776601683795</v>
       </c>
       <c r="F25" s="2">
         <f t="shared" si="9"/>
-        <v>1.4433756729740645</v>
+        <v>0.94868329805051377</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="2" t="s">
@@ -8775,7 +8775,7 @@
       </c>
       <c r="I25" s="2">
         <f>MAX(J17:J19)</f>
-        <v>4.3301270189221936</v>
+        <v>3.7947331922020551</v>
       </c>
       <c r="J25" s="6"/>
       <c r="K25" s="2" t="s">
@@ -8783,7 +8783,7 @@
       </c>
       <c r="L25" s="2">
         <f>MIN(J17:J19)</f>
-        <v>2.598076211353316</v>
+        <v>2.8460498941515411</v>
       </c>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
@@ -8897,15 +8897,15 @@
       </c>
       <c r="I29" s="2">
         <f>I23-H17</f>
-        <v>1.7320508075688776</v>
+        <v>0</v>
       </c>
       <c r="J29" s="1">
         <f>I24-I17</f>
-        <v>2.3094010767585034</v>
+        <v>0</v>
       </c>
       <c r="K29" s="2">
         <f>I25-J17</f>
-        <v>1.7320508075688776</v>
+        <v>0.94868329805051399</v>
       </c>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
@@ -8915,7 +8915,7 @@
       </c>
       <c r="P29" s="2">
         <f>L23-H17</f>
-        <v>0</v>
+        <v>-0.90453403373329078</v>
       </c>
       <c r="Q29" s="2">
         <f>L24-I17</f>
@@ -8943,15 +8943,15 @@
       </c>
       <c r="I30" s="2">
         <f>I23-H18</f>
-        <v>0.86602540378443837</v>
+        <v>0</v>
       </c>
       <c r="J30" s="2">
         <f>I24-I18</f>
-        <v>1.1547005383792515</v>
+        <v>0</v>
       </c>
       <c r="K30" s="2">
         <f>I25-J18</f>
-        <v>0.86602540378443837</v>
+        <v>0</v>
       </c>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
@@ -8961,15 +8961,15 @@
       </c>
       <c r="P30" s="2">
         <f>L23-H18</f>
-        <v>-0.86602540378443926</v>
+        <v>-0.90453403373329078</v>
       </c>
       <c r="Q30" s="2">
         <f>L24-I18</f>
-        <v>-1.1547005383792519</v>
+        <v>0</v>
       </c>
       <c r="R30" s="2">
         <f>L25-J18</f>
-        <v>-0.86602540378443926</v>
+        <v>-0.94868329805051399</v>
       </c>
       <c r="S30" s="6"/>
       <c r="T30" s="6"/>
@@ -8989,7 +8989,7 @@
       </c>
       <c r="I31" s="2">
         <f>I23-H19</f>
-        <v>0</v>
+        <v>0.90453403373329078</v>
       </c>
       <c r="J31" s="2">
         <f>I24-I19</f>
@@ -8997,7 +8997,7 @@
       </c>
       <c r="K31" s="2">
         <f>I25-J19</f>
-        <v>0</v>
+        <v>0.94868329805051399</v>
       </c>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
@@ -9007,15 +9007,15 @@
       </c>
       <c r="P31" s="10">
         <f>L23-H19</f>
-        <v>-1.7320508075688776</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="2">
         <f>L24-I19</f>
-        <v>-2.3094010767585034</v>
+        <v>0</v>
       </c>
       <c r="R31" s="2">
         <f>L25-I19</f>
-        <v>-3.1754264805429422</v>
+        <v>-1.1539501058484589</v>
       </c>
       <c r="S31" s="6"/>
       <c r="T31" s="6"/>
@@ -9047,10 +9047,10 @@
       <c r="V32" s="14"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="89" t="s">
+      <c r="A33" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="B33" s="90"/>
+      <c r="B33" s="83"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -9096,7 +9096,7 @@
       </c>
       <c r="B34" s="25">
         <f>T34/(T34+M34)</f>
-        <v>0</v>
+        <v>0.48808848170151542</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -9108,23 +9108,23 @@
       </c>
       <c r="I34" s="2">
         <f>I29^2</f>
-        <v>3.0000000000000013</v>
+        <v>0</v>
       </c>
       <c r="J34" s="2">
         <f>J29^2</f>
-        <v>5.3333333333333348</v>
+        <v>0</v>
       </c>
       <c r="K34" s="2">
         <f t="shared" ref="K34" si="10">K29^2</f>
-        <v>3.0000000000000013</v>
+        <v>0.90000000000000036</v>
       </c>
       <c r="L34" s="2">
         <f>SUM(I34:K34)</f>
-        <v>11.333333333333337</v>
+        <v>0.90000000000000036</v>
       </c>
       <c r="M34" s="2">
         <f>L34^0.5</f>
-        <v>3.3665016461206934</v>
+        <v>0.94868329805051399</v>
       </c>
       <c r="N34" s="6"/>
       <c r="O34" s="1" t="s">
@@ -9132,7 +9132,7 @@
       </c>
       <c r="P34" s="2">
         <f t="shared" ref="P34:R35" si="11">P29^2</f>
-        <v>0</v>
+        <v>0.81818181818181801</v>
       </c>
       <c r="Q34" s="2">
         <f t="shared" si="11"/>
@@ -9144,11 +9144,11 @@
       </c>
       <c r="S34" s="2">
         <f>SUM(P34:R34)</f>
-        <v>0</v>
+        <v>0.81818181818181801</v>
       </c>
       <c r="T34" s="2">
         <f>S34^0.5</f>
-        <v>0</v>
+        <v>0.90453403373329078</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
@@ -9157,7 +9157,7 @@
       </c>
       <c r="B35" s="25">
         <f t="shared" ref="B35:B36" si="12">T35/(T35+M35)</f>
-        <v>0.50000000000000022</v>
+        <v>1</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -9169,23 +9169,23 @@
       </c>
       <c r="I35" s="2">
         <f t="shared" ref="I35:K36" si="13">I30^2</f>
-        <v>0.74999999999999956</v>
+        <v>0</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" si="13"/>
-        <v>1.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="K35" s="2">
         <f t="shared" si="13"/>
-        <v>0.74999999999999956</v>
+        <v>0</v>
       </c>
       <c r="L35" s="2">
         <f t="shared" ref="L35:L36" si="14">SUM(I35:K35)</f>
-        <v>2.8333333333333326</v>
+        <v>0</v>
       </c>
       <c r="M35" s="2">
         <f t="shared" ref="M35:M36" si="15">L35^0.5</f>
-        <v>1.683250823060346</v>
+        <v>0</v>
       </c>
       <c r="N35" s="6"/>
       <c r="O35" s="1" t="s">
@@ -9193,23 +9193,23 @@
       </c>
       <c r="P35" s="2">
         <f t="shared" si="11"/>
-        <v>0.75000000000000111</v>
+        <v>0.81818181818181801</v>
       </c>
       <c r="Q35" s="2">
         <f t="shared" si="11"/>
-        <v>1.3333333333333341</v>
+        <v>0</v>
       </c>
       <c r="R35" s="2">
         <f t="shared" si="11"/>
-        <v>0.75000000000000111</v>
+        <v>0.90000000000000036</v>
       </c>
       <c r="S35" s="2">
         <f t="shared" ref="S35:S36" si="16">SUM(P35:R35)</f>
-        <v>2.8333333333333366</v>
+        <v>1.7181818181818183</v>
       </c>
       <c r="T35" s="2">
         <f>S35^0.5</f>
-        <v>1.6832508230603473</v>
+        <v>1.3107943462579545</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
@@ -9218,7 +9218,7 @@
       </c>
       <c r="B36" s="25">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0.46818245391008922</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -9230,7 +9230,7 @@
       </c>
       <c r="I36" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.81818181818181801</v>
       </c>
       <c r="J36" s="2">
         <f t="shared" si="13"/>
@@ -9238,15 +9238,15 @@
       </c>
       <c r="K36" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.90000000000000036</v>
       </c>
       <c r="L36" s="2">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1.7181818181818183</v>
       </c>
       <c r="M36" s="2">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1.3107943462579545</v>
       </c>
       <c r="N36" s="6"/>
       <c r="O36" s="1" t="s">
@@ -9254,23 +9254,23 @@
       </c>
       <c r="P36" s="2">
         <f>P31^2</f>
-        <v>3.0000000000000013</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="2">
         <f t="shared" ref="Q36:R36" si="17">Q31^2</f>
-        <v>5.3333333333333348</v>
+        <v>0</v>
       </c>
       <c r="R36" s="2">
         <f t="shared" si="17"/>
-        <v>10.083333333333336</v>
+        <v>1.3316008467876694</v>
       </c>
       <c r="S36" s="2">
         <f t="shared" si="16"/>
-        <v>18.416666666666671</v>
+        <v>1.3316008467876694</v>
       </c>
       <c r="T36" s="2">
         <f>S36^0.5</f>
-        <v>4.2914643965279113</v>
+        <v>1.1539501058484589</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
@@ -9305,8 +9305,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.75" customWidth="1"/>
+    <col min="2" max="2" width="20.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
@@ -9358,7 +9358,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="6"/>
-      <c r="F3" s="91" t="s">
+      <c r="F3" s="84" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="86" t="s">
@@ -9386,7 +9386,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="F4" s="92"/>
+      <c r="F4" s="85"/>
       <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
@@ -9421,15 +9421,15 @@
       </c>
       <c r="G5" s="2">
         <f>Hasil!I5</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H5" s="19">
         <f>Hasil!J5</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" s="2">
         <f>Hasil!K5</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J5" s="18"/>
       <c r="K5" s="18"/>
@@ -9482,15 +9482,15 @@
       </c>
       <c r="G7" s="2">
         <f>Hasil!I7</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H7" s="19">
         <f>Hasil!J7</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I7" s="2">
         <f>Hasil!K7</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J7" s="18"/>
       <c r="K7" s="18"/>
@@ -9572,11 +9572,11 @@
       </c>
       <c r="B11" s="2">
         <f>G5</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" s="2">
         <f>MIN(B11:B13)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" s="2">
         <f>C11/B11</f>
@@ -9592,7 +9592,7 @@
       </c>
       <c r="H11" s="10">
         <f>D17</f>
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I11" s="10">
         <f>D23</f>
@@ -9612,7 +9612,7 @@
       </c>
       <c r="M11" s="25">
         <f>(G11*J11)+(H11*K11)+(I11*L11)</f>
-        <v>8.4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -9625,11 +9625,11 @@
       </c>
       <c r="C12" s="2">
         <f>MIN(B11:B13)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" ref="D12:D13" si="0">C12/B12</f>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="23" t="s">
@@ -9637,15 +9637,15 @@
       </c>
       <c r="G12" s="10">
         <f>D12</f>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H12" s="10">
         <f>D18</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I12" s="10">
         <f>D24</f>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="J12" s="10">
         <f>D4/1</f>
@@ -9661,7 +9661,7 @@
       </c>
       <c r="M12" s="25">
         <f t="shared" ref="M12:M13" si="1">(G12*J12)+(H12*K12)+(I12*L12)</f>
-        <v>7.7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -9670,15 +9670,15 @@
       </c>
       <c r="B13" s="2">
         <f>G7</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" s="2">
         <f>MIN(B11:B13)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="23" t="s">
@@ -9686,15 +9686,15 @@
       </c>
       <c r="G13" s="10">
         <f>D13</f>
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H13" s="10">
         <f>D19</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="I13" s="10">
         <f>D25</f>
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="J13" s="10">
         <f>D4/1</f>
@@ -9710,7 +9710,7 @@
       </c>
       <c r="M13" s="25">
         <f t="shared" si="1"/>
-        <v>7.6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -9774,15 +9774,15 @@
       </c>
       <c r="B17" s="2">
         <f>H5</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" s="2">
         <f>MAX(B17:B19)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" s="2">
         <f>B17/C17</f>
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
@@ -9804,11 +9804,11 @@
       </c>
       <c r="C18" s="2">
         <f>MAX(B17:B19)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" ref="D18:D19" si="2">B18/C18</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
@@ -9826,15 +9826,15 @@
       </c>
       <c r="B19" s="2">
         <f>H7</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C19" s="2">
         <f>MAX(B17:B19)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
@@ -9907,11 +9907,11 @@
       </c>
       <c r="B23" s="2">
         <f>I5</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C23" s="2">
         <f>MIN(B23:B25)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" s="2">
         <f>C23/B23</f>
@@ -9937,11 +9937,11 @@
       </c>
       <c r="C24" s="2">
         <f>MIN(B23:B25)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" ref="D24:D25" si="3">C24/B24</f>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
@@ -9959,15 +9959,15 @@
       </c>
       <c r="B25" s="2">
         <f>I7</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25" s="2">
         <f>MIN(B23:B25)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="3"/>
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>

--- a/perhitungan spk asisten.xlsx
+++ b/perhitungan spk asisten.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2670"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2670" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Hasil" sheetId="2" r:id="rId1"/>
@@ -1305,8 +1305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2945,7 +2945,9 @@
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
+      <c r="E41" s="6">
+        <v>4</v>
+      </c>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
@@ -3852,7 +3854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -4840,8 +4842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
